--- a/data/trans_orig/P62AS2_2015-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P62AS2_2015-Estudios-trans_orig.xlsx
@@ -1555,7 +1555,7 @@
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>58,34%</t>
+          <t>55,84%</t>
         </is>
       </c>
       <c r="M16" s="2" t="n">
@@ -1576,7 +1576,7 @@
       </c>
       <c r="Q16" s="2" t="inlineStr">
         <is>
-          <t>58,34%</t>
+          <t>55,84%</t>
         </is>
       </c>
     </row>
@@ -1619,12 +1619,12 @@
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>19,51%</t>
+          <t>19,27%</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>89,5%</t>
+          <t>89,12%</t>
         </is>
       </c>
       <c r="M17" s="2" t="n">
@@ -1640,12 +1640,12 @@
       </c>
       <c r="P17" s="2" t="inlineStr">
         <is>
-          <t>19,51%</t>
+          <t>19,27%</t>
         </is>
       </c>
       <c r="Q17" s="2" t="inlineStr">
         <is>
-          <t>89,5%</t>
+          <t>89,12%</t>
         </is>
       </c>
     </row>
@@ -1693,7 +1693,7 @@
       </c>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>66,47%</t>
+          <t>66,96%</t>
         </is>
       </c>
       <c r="M18" s="2" t="n">
@@ -1714,7 +1714,7 @@
       </c>
       <c r="Q18" s="2" t="inlineStr">
         <is>
-          <t>66,47%</t>
+          <t>66,96%</t>
         </is>
       </c>
     </row>
